--- a/quals-ppt/Quals-MT-results-tabs-n-charts.xlsx
+++ b/quals-ppt/Quals-MT-results-tabs-n-charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/papers/nmt-imbalance-2020/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/phd/phd-git/quals-ppt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06F9BCC-AA62-0F46-A857-EF26FFD16720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E453C26-673E-5B48-A2EB-ABBD030F6C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{612D648C-80A0-7440-B9F3-D759B1AAA2F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{612D648C-80A0-7440-B9F3-D759B1AAA2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="BLEU" sheetId="1" r:id="rId1"/>
@@ -16705,7 +16705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8EC8A-2DE2-384E-AE1C-165B39964081}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="J15" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
@@ -24816,7 +24816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D750A7C3-8C93-364E-809C-C9C4D83BB2C9}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
@@ -29168,6 +29168,34 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="M15:W15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="X15:AH15"/>
+    <mergeCell ref="AI15:AS15"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="AI1:AS1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="X1:AH1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="W55:AG55"/>
+    <mergeCell ref="W56:Z56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="A55:K55"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="I56:J56"/>
@@ -29177,34 +29205,6 @@
     <mergeCell ref="L55:V55"/>
     <mergeCell ref="L56:O56"/>
     <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W55:AG55"/>
-    <mergeCell ref="W56:Z56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="AI1:AS1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="X1:AH1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:W15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="X15:AH15"/>
-    <mergeCell ref="AI15:AS15"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AQ16:AR16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
